--- a/src/outputs/normal/3-quintals.xlsx
+++ b/src/outputs/normal/3-quintals.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,13 +402,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35.58356164</v>
+        <v>33.509589041</v>
       </c>
       <c r="B2" t="n">
-        <v>97.824657531</v>
+        <v>94.59178082000001</v>
       </c>
       <c r="C2" t="n">
-        <v>202.35616439</v>
+        <v>200.939726023</v>
       </c>
       <c r="D2" t="n">
         <v>573.3808218950001</v>
@@ -434,19 +434,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40.93291881</v>
+        <v>27.1</v>
       </c>
       <c r="B3" t="n">
-        <v>98.29564944000001</v>
+        <v>72.19999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>205.1247123</v>
+        <v>123</v>
       </c>
       <c r="D3" t="n">
-        <v>589.3543662999999</v>
+        <v>348.6</v>
       </c>
       <c r="E3" t="n">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -460,34 +460,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>169.6</v>
+        <v>42.53150685350001</v>
       </c>
       <c r="B4" t="n">
-        <v>180.4</v>
+        <v>86.723287672</v>
       </c>
       <c r="C4" t="n">
-        <v>220.8</v>
+        <v>153.586301357</v>
       </c>
       <c r="D4" t="n">
-        <v>348.6</v>
+        <v>247.57808216</v>
       </c>
       <c r="E4" t="n">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Dairy</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -498,60 +498,60 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>181.97673905</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>189.0496616</v>
+        <v>56.7</v>
       </c>
       <c r="C5" t="n">
-        <v>229.9487843</v>
+        <v>97.5</v>
       </c>
       <c r="D5" t="n">
-        <v>377.5348972</v>
+        <v>152.6</v>
       </c>
       <c r="E5" t="n">
         <v>664</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Dairy</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70.90410959</v>
+        <v>46.98082192299999</v>
       </c>
       <c r="B6" t="n">
-        <v>170.400000049</v>
+        <v>55.545205475</v>
       </c>
       <c r="C6" t="n">
-        <v>287.2657534</v>
+        <v>68.01643835600001</v>
       </c>
       <c r="D6" t="n">
-        <v>476.2082192</v>
+        <v>110.898630126</v>
       </c>
       <c r="E6" t="n">
         <v>645</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dairy</t>
+          <t>Fats &amp; Oils</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -562,55 +562,55 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24.42867385</v>
+        <v>496.85</v>
       </c>
       <c r="B7" t="n">
-        <v>99.537310495</v>
+        <v>542.4000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>226.2953677</v>
+        <v>688.8000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>480.6576811</v>
+        <v>905.2</v>
       </c>
       <c r="E7" t="n">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dairy</t>
+          <t>Fats &amp; Oils</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56.55</v>
+        <v>76.65205479799999</v>
       </c>
       <c r="B8" t="n">
-        <v>143.5</v>
+        <v>122.416438352</v>
       </c>
       <c r="C8" t="n">
-        <v>249.6</v>
+        <v>166.750684936</v>
       </c>
       <c r="D8" t="n">
-        <v>396.6</v>
+        <v>199.090410971</v>
       </c>
       <c r="E8" t="n">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dairy</t>
+          <t>Fruits</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -626,23 +626,23 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.86275746</v>
+        <v>42.7</v>
       </c>
       <c r="B9" t="n">
-        <v>74.38875358</v>
+        <v>71.60000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>202.0942629</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>391.2104724</v>
+        <v>124</v>
       </c>
       <c r="E9" t="n">
         <v>664</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dairy</t>
+          <t>Fruits</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -652,34 +652,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34.6602739715</v>
+        <v>203.547945192</v>
       </c>
       <c r="B10" t="n">
-        <v>44.901369864</v>
+        <v>231.394520543</v>
       </c>
       <c r="C10" t="n">
-        <v>58.736986299</v>
+        <v>252.90410957275</v>
       </c>
       <c r="D10" t="n">
-        <v>110.898630126</v>
+        <v>279.36986302</v>
       </c>
       <c r="E10" t="n">
         <v>645</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fats &amp; Oils</t>
+          <t>Grains (Starchy staples)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -690,60 +690,60 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40.09778809</v>
+        <v>690.7</v>
       </c>
       <c r="B11" t="n">
-        <v>56.468278575</v>
+        <v>756.6666666654999</v>
       </c>
       <c r="C11" t="n">
-        <v>73.30213040999999</v>
+        <v>797.7499999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>200.0807009</v>
+        <v>827.5</v>
       </c>
       <c r="E11" t="n">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fats &amp; Oils</t>
+          <t>Grains (Starchy staples)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>228.5</v>
+        <v>21.59999999975</v>
       </c>
       <c r="B12" t="n">
-        <v>325</v>
+        <v>33.747945202</v>
       </c>
       <c r="C12" t="n">
-        <v>453.55</v>
+        <v>52.126027396</v>
       </c>
       <c r="D12" t="n">
-        <v>905.2</v>
+        <v>122.482191816</v>
       </c>
       <c r="E12" t="n">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fats &amp; Oils</t>
+          <t>Legumes, Nuts &amp; Seeds</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -754,60 +754,60 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>163.2582733</v>
+        <v>69.64999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>291.35050705</v>
+        <v>112.7</v>
       </c>
       <c r="C13" t="n">
-        <v>536.6485502999999</v>
+        <v>153.65</v>
       </c>
       <c r="D13" t="n">
-        <v>1596.610745</v>
+        <v>559.0000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>664</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fats &amp; Oils</t>
+          <t>Legumes, Nuts &amp; Seeds</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96.72876712600001</v>
+        <v>152.65068493875</v>
       </c>
       <c r="B14" t="n">
-        <v>163.950684924</v>
+        <v>249.5479452435</v>
       </c>
       <c r="C14" t="n">
-        <v>210.334246562</v>
+        <v>330.278082202</v>
       </c>
       <c r="D14" t="n">
-        <v>278.8657534119999</v>
+        <v>718.1972601889998</v>
       </c>
       <c r="E14" t="n">
         <v>645</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fruits</t>
+          <t>Meats</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -818,60 +818,52 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>57.08348955</v>
+        <v>272.6</v>
       </c>
       <c r="B15" t="n">
-        <v>120.1954736</v>
+        <v>378.8</v>
       </c>
       <c r="C15" t="n">
-        <v>183.4452285</v>
+        <v>486.05</v>
       </c>
       <c r="D15" t="n">
-        <v>279.7296863</v>
+        <v>981.8000000000003</v>
       </c>
       <c r="E15" t="n">
+        <v>664</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Meats</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
         <v>645</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Fruits</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="B16" t="n">
-        <v>87</v>
-      </c>
-      <c r="C16" t="n">
-        <v>120.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>201.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>664</v>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fruits</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -882,55 +874,47 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30.671440765</v>
+        <v>1.8</v>
       </c>
       <c r="B17" t="n">
-        <v>64.15646265000001</v>
+        <v>3.9</v>
       </c>
       <c r="C17" t="n">
-        <v>107.4878049</v>
+        <v>8.75</v>
       </c>
       <c r="D17" t="n">
-        <v>200.3212366</v>
+        <v>78.8</v>
       </c>
       <c r="E17" t="n">
         <v>664</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fruits</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>67.85753425549998</v>
-      </c>
-      <c r="C18" t="n">
-        <v>228.7027397275</v>
-      </c>
-      <c r="D18" t="n">
-        <v>279.36986302</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>645</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grains (Starchy staples)</t>
+          <t>Spices</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -945,24 +929,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>30.23974381</v>
-      </c>
-      <c r="B19" t="n">
-        <v>110.1397692</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200.5933874</v>
-      </c>
-      <c r="D19" t="n">
-        <v>278.5135414</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grains (Starchy staples)</t>
+          <t>Spices</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -972,34 +948,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>70.8684931505</v>
       </c>
       <c r="B20" t="n">
-        <v>678.8000000000001</v>
+        <v>96.74520548</v>
       </c>
       <c r="C20" t="n">
-        <v>742.4666666654999</v>
+        <v>126.2520547865</v>
       </c>
       <c r="D20" t="n">
-        <v>788.7999999999998</v>
+        <v>245.709589081</v>
       </c>
       <c r="E20" t="n">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grains (Starchy staples)</t>
+          <t>Sugars</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1010,55 +986,55 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>143.346967175</v>
+        <v>255.4</v>
       </c>
       <c r="B21" t="n">
-        <v>415.7271673</v>
+        <v>327.3</v>
       </c>
       <c r="C21" t="n">
-        <v>690.6997789999999</v>
+        <v>418.1</v>
       </c>
       <c r="D21" t="n">
-        <v>810.064133</v>
+        <v>583.5999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>664</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grains (Starchy staples)</t>
+          <t>Sugars</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13.863013699</v>
+        <v>76.26849315</v>
       </c>
       <c r="B22" t="n">
-        <v>22.405479456</v>
+        <v>136.87671236</v>
       </c>
       <c r="C22" t="n">
-        <v>29.841095887</v>
+        <v>201.27808217</v>
       </c>
       <c r="D22" t="n">
-        <v>35.791780821</v>
+        <v>299.413698655</v>
       </c>
       <c r="E22" t="n">
         <v>645</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Legumes, Nuts &amp; Seeds</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1074,23 +1050,23 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.46069733</v>
+        <v>22.6</v>
       </c>
       <c r="B23" t="n">
-        <v>16.00980696</v>
+        <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>22.860157295</v>
+        <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>35.90776489</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Legumes, Nuts &amp; Seeds</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1100,655 +1076,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="B24" t="n">
-        <v>71.60000000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>664</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Legumes, Nuts &amp; Seeds</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>27.83777877</v>
-      </c>
-      <c r="B25" t="n">
-        <v>49.34545455</v>
-      </c>
-      <c r="C25" t="n">
-        <v>73.68682009</v>
-      </c>
-      <c r="D25" t="n">
-        <v>116.56</v>
-      </c>
-      <c r="E25" t="n">
-        <v>664</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Legumes, Nuts &amp; Seeds</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>210.975342445</v>
-      </c>
-      <c r="B26" t="n">
-        <v>285.8849314940001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>343.6602739649999</v>
-      </c>
-      <c r="D26" t="n">
-        <v>718.1972601889998</v>
-      </c>
-      <c r="E26" t="n">
-        <v>645</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Meats</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>198.941541625</v>
-      </c>
-      <c r="B27" t="n">
-        <v>271.0407189</v>
-      </c>
-      <c r="C27" t="n">
-        <v>358.34943725</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7742.40902</v>
-      </c>
-      <c r="E27" t="n">
-        <v>645</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Meats</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>379.9999999999999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>452.9</v>
-      </c>
-      <c r="C28" t="n">
-        <v>530.15</v>
-      </c>
-      <c r="D28" t="n">
-        <v>981.8000000000003</v>
-      </c>
-      <c r="E28" t="n">
-        <v>664</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Meats</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>362.1528573</v>
-      </c>
-      <c r="B29" t="n">
-        <v>495.6766916999999</v>
-      </c>
-      <c r="C29" t="n">
-        <v>599.2200066</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10911.58267</v>
-      </c>
-      <c r="E29" t="n">
-        <v>664</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Meats</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>645</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>645</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D32" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>664</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>664</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>645</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Spices</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>645</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Spices</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>664</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Spices</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>664</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Spices</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>61.1287671255</v>
-      </c>
-      <c r="B38" t="n">
-        <v>91.64931506799999</v>
-      </c>
-      <c r="C38" t="n">
-        <v>124.1178082315</v>
-      </c>
-      <c r="D38" t="n">
-        <v>245.709589081</v>
-      </c>
-      <c r="E38" t="n">
-        <v>645</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sugars</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>50.2905191825</v>
-      </c>
-      <c r="B39" t="n">
-        <v>86.563882945</v>
-      </c>
-      <c r="C39" t="n">
-        <v>120.71939045</v>
-      </c>
-      <c r="D39" t="n">
-        <v>263.152691</v>
-      </c>
-      <c r="E39" t="n">
-        <v>645</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sugars</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="B40" t="n">
-        <v>309.6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>395.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>583.5999999999999</v>
-      </c>
-      <c r="E40" t="n">
-        <v>664</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sugars</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>168.5958321</v>
-      </c>
-      <c r="B41" t="n">
-        <v>294.0684211</v>
-      </c>
-      <c r="C41" t="n">
-        <v>412.8458809</v>
-      </c>
-      <c r="D41" t="n">
-        <v>581.4511153</v>
-      </c>
-      <c r="E41" t="n">
-        <v>664</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sugars</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>89.44109589499999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>147.69315071</v>
-      </c>
-      <c r="C42" t="n">
-        <v>219.1506849625</v>
-      </c>
-      <c r="D42" t="n">
-        <v>344.92054796</v>
-      </c>
-      <c r="E42" t="n">
-        <v>645</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Vegetables</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>68.48148607499999</v>
-      </c>
-      <c r="B43" t="n">
-        <v>115.4143452</v>
-      </c>
-      <c r="C43" t="n">
-        <v>185.0115789</v>
-      </c>
-      <c r="D43" t="n">
-        <v>338.0774832</v>
-      </c>
-      <c r="E43" t="n">
-        <v>645</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Vegetables</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ssr</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="B44" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>67</v>
-      </c>
-      <c r="D44" t="n">
-        <v>143</v>
-      </c>
-      <c r="E44" t="n">
-        <v>664</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Vegetables</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>21.308698185</v>
-      </c>
-      <c r="B45" t="n">
-        <v>35.084</v>
-      </c>
-      <c r="C45" t="n">
-        <v>63.877482745</v>
-      </c>
-      <c r="D45" t="n">
-        <v>146.4092202</v>
-      </c>
-      <c r="E45" t="n">
-        <v>664</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Vegetables</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ssr</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
